--- a/resource/backup/Apus-0001.xlsx
+++ b/resource/backup/Apus-0001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\personal1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\personal1\Documents\GitHub\IngehisaSoft\resource\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ANALISIS DE PRECIOS UNITARIOS</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>VALOR OFERTADO:</t>
+  </si>
+  <si>
+    <t>equ</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -270,16 +273,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -287,6 +281,19 @@
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -586,41 +593,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -645,25 +652,25 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -674,21 +681,21 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -706,10 +713,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
@@ -729,35 +736,35 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="6">
         <f>SUM(H11:H11)</f>
         <v>5.1979999999999995</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
@@ -775,10 +782,10 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="6">
         <v>2</v>
       </c>
@@ -798,36 +805,36 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="6">
         <f>SUM(H15:H15)</f>
         <v>16.329999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
@@ -842,11 +849,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
@@ -862,35 +869,35 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="6">
         <f>SUM(H19:H19)</f>
         <v>6.96</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
@@ -908,10 +915,10 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
@@ -927,25 +934,25 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="6">
         <f>SUM(H23:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="6">
         <f>SUM(H12+H16+H20+H24)</f>
         <v>28.488</v>
@@ -955,10 +962,10 @@
       <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="8">
         <v>0.01</v>
       </c>
@@ -968,10 +975,10 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="8">
         <v>0.11</v>
       </c>
@@ -981,11 +988,11 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="6">
         <f>SUM(H25:H27)</f>
         <v>31.906559999999999</v>
@@ -995,11 +1002,11 @@
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="6">
         <f>SUM(H28)</f>
         <v>31.906559999999999</v>
@@ -1007,31 +1014,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C6:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C6:H7"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1039,35 +1046,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:K21"/>
+  <dimension ref="C8:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="6.7109375" style="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="17">
+        <v>38</v>
+      </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>3</v>
+      </c>
       <c r="E9">
         <v>6.88</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>46</v>
+      </c>
       <c r="E10">
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
       <c r="E11">
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
       <c r="E12">
         <v>3.51</v>
       </c>
@@ -1076,7 +1104,10 @@
         <v>17.307692307692307</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>3.55</v>
       </c>
@@ -1085,7 +1116,10 @@
         <v>21.153846153846153</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="17">
+        <v>8</v>
+      </c>
       <c r="E14">
         <v>3.93</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>23.846153846153847</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E16">
         <f>SUM(E8:E14)</f>
         <v>25.47</v>
@@ -1142,9 +1176,23 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f>+I16/E16</f>
+        <v>0.13590649633052462</v>
+      </c>
+      <c r="H21" s="9">
+        <f>+G21*1.5</f>
+        <v>0.20385974449578692</v>
+      </c>
       <c r="K21">
         <f>+K20+K19</f>
         <v>29.855999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f>0.53*1.5</f>
+        <v>0.79500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/resource/backup/Apus-0001.xlsx
+++ b/resource/backup/Apus-0001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>ANALISIS DE PRECIOS UNITARIOS</t>
   </si>
@@ -176,13 +176,38 @@
   </si>
   <si>
     <t>equ</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>valor variable</t>
+  </si>
+  <si>
+    <t>adicional</t>
+  </si>
+  <si>
+    <t>valor adicional</t>
+  </si>
+  <si>
+    <t>arriba / T</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>rendimiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,8 +228,15 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +246,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,10 +294,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -274,6 +319,20 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -283,21 +342,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,7 +643,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13"/>
@@ -607,7 +657,7 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="13"/>
@@ -620,7 +670,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="13"/>
@@ -652,7 +702,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="13"/>
@@ -666,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -681,21 +731,21 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -713,10 +763,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6">
         <v>2</v>
       </c>
@@ -736,7 +786,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="13"/>
@@ -750,21 +800,21 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,7 +832,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="13"/>
@@ -805,36 +855,36 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="6">
         <f>SUM(H15:H15)</f>
         <v>16.329999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
@@ -849,7 +899,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="13"/>
@@ -869,35 +919,35 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="6">
         <f>SUM(H19:H19)</f>
         <v>6.96</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
@@ -915,7 +965,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="13"/>
@@ -934,25 +984,25 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="6">
         <f>SUM(H23:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="6">
         <f>SUM(H12+H16+H20+H24)</f>
         <v>28.488</v>
@@ -962,10 +1012,10 @@
       <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="8">
         <v>0.01</v>
       </c>
@@ -975,10 +1025,10 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="8">
         <v>0.11</v>
       </c>
@@ -988,11 +1038,11 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="6">
         <f>SUM(H25:H27)</f>
         <v>31.906559999999999</v>
@@ -1002,11 +1052,11 @@
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="6">
         <f>SUM(H28)</f>
         <v>31.906559999999999</v>
@@ -1014,31 +1064,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C6:H7"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1049,16 +1099,17 @@
   <dimension ref="C8:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="11" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <v>38</v>
       </c>
       <c r="E8">
@@ -1066,7 +1117,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <v>3</v>
       </c>
       <c r="E9">
@@ -1074,7 +1125,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <v>46</v>
       </c>
       <c r="E10">
@@ -1085,7 +1136,7 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11">
@@ -1093,7 +1144,7 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
       <c r="E12">
@@ -1105,7 +1156,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13">
@@ -1117,7 +1168,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <v>8</v>
       </c>
       <c r="E14">
@@ -1126,6 +1177,14 @@
       <c r="G14">
         <f>620/26</f>
         <v>23.846153846153847</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -1137,36 +1196,54 @@
         <f>SUM(G12:G14)</f>
         <v>62.307692307692307</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="20">
         <v>18</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="20">
         <f>+G16/H16</f>
         <v>3.4615384615384617</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="I17">
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="I18">
-        <f>+I17+I16</f>
+      <c r="I17" s="19">
+        <f>+H17+I16</f>
         <v>13.461538461538462</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
       <c r="K19">
         <v>24.88</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
       <c r="G20">
-        <f>+I18/E16</f>
+        <f>+I17/E16</f>
         <v>0.52852526350759566</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="10">
         <f>+G20*1.5</f>
         <v>0.79278789526139348</v>
       </c>
@@ -1175,12 +1252,12 @@
         <v>4.976</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G21">
         <f>+I16/E16</f>
         <v>0.13590649633052462</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <f>+G21*1.5</f>
         <v>0.20385974449578692</v>
       </c>
@@ -1189,7 +1266,7 @@
         <v>29.855999999999998</v>
       </c>
     </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G23">
         <f>0.53*1.5</f>
         <v>0.79500000000000004</v>
